--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8800a6e080b81c6/Documents/University/Computer Science/Year 2/COMP2013 - Developing Maintainable Software/CW - Snake/src/Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BD9B3F-2731-4BB7-9ABF-FAB864AEE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{16BD9B3F-2731-4BB7-9ABF-FAB864AEE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A82035-61BA-41BD-BBDA-EAAF175D6667}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D40E3BD0-85A9-41B2-A0C0-5D47A818CA67}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Difficulty</t>
+    <t>Jack</t>
   </si>
   <si>
-    <t>Bombs on?</t>
+    <t>Jack Better</t>
   </si>
 </sst>
 </file>
@@ -100,6 +100,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,29 +403,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9215E21-896C-4D65-A0C5-9F11F4286E77}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
+    <sortCondition descending="1" ref="B2:B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -3,21 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8800a6e080b81c6/Documents/University/Computer Science/Year 2/COMP2013 - Developing Maintainable Software/CW - Snake/src/Application/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{16BD9B3F-2731-4BB7-9ABF-FAB864AEE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4A82035-61BA-41BD-BBDA-EAAF175D6667}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{16BD9B3F-2731-4BB7-9ABF-FAB864AEE52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0578DC02-7B7F-4F69-92E9-231457EBA0ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D40E3BD0-85A9-41B2-A0C0-5D47A818CA67}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D40E3BD0-85A9-41B2-A0C0-5D47A818CA67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -44,16 +49,17 @@
     <t>Score</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
-  <si>
-    <t>Jack Better</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,10 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,43 +404,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9215E21-896C-4D65-A0C5-9F11F4286E77}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05B22-988A-4146-BED8-42077AB0D08E}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0"/>
+      <c r="B4" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="B5" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B939D878-E8C6-4A7A-8E0A-E08F83168427}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98060BC9-2618-4D68-A88C-007ABEB60946}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E3FC53-DF6F-45BF-A277-ACA82C20E2D9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F06A1B3-4662-4CB9-A146-4F17B36F623F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>2605.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348C88F-41BF-45E4-838C-56BA43C0AFD0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0">
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
-    <sortCondition descending="1" ref="B2:B3"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>Jack</t>
+  </si>
+  <si>
+    <t>jg</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>jh</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05B22-988A-4146-BED8-42077AB0D08E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -449,6 +461,78 @@
       </c>
       <c r="B5" t="n" s="0">
         <v>1042.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>2084.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1042.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>3647.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>521.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>4689.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>4689.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>jk</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>l7</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05B22-988A-4146-BED8-42077AB0D08E}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -533,6 +539,14 @@
       </c>
       <c r="B14" t="n" s="0">
         <v>4689.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +626,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E3FC53-DF6F-45BF-A277-ACA82C20E2D9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -642,6 +656,14 @@
       </c>
       <c r="B3" t="n" s="0">
         <v>521.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>2084.0</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +712,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348C88F-41BF-45E4-838C-56BA43C0AFD0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -722,6 +744,14 @@
         <v>1042.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -556,7 +556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B939D878-E8C6-4A7A-8E0A-E08F83168427}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -578,6 +578,14 @@
       </c>
       <c r="B2" t="n" s="0">
         <v>521.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05B22-988A-4146-BED8-42077AB0D08E}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -547,6 +547,14 @@
       </c>
       <c r="B15" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>9378.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Application/SnakeeLeaderboard.xlsx
+++ b/src/Application/SnakeeLeaderboard.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD05B22-988A-4146-BED8-42077AB0D08E}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -555,6 +555,22 @@
       </c>
       <c r="B16" t="n" s="0">
         <v>9378.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>1042.0</v>
       </c>
     </row>
   </sheetData>
